--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC8EF7-ADA9-4B54-9387-B8C63AFD41A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7AA61F-5462-4B85-974C-9FCD3ADE50BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -215,12 +215,21 @@
   <si>
     <t>Rest API</t>
   </si>
+  <si>
+    <t>Actually occurred in sprint 2</t>
+  </si>
+  <si>
+    <t>Actually occurred in sprint 3</t>
+  </si>
+  <si>
+    <t>Actually occurred in sprint 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -281,6 +290,10 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -408,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -457,25 +470,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1470,25 +1484,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1819,11 +1833,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_10" displayName="Table_10" ref="H44:J50" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_10" displayName="Table_10" ref="H44:K50" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{056AFB56-110F-4E9D-BC1C-49EB09189090}" name="Column4" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2460,18 +2475,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2543,7 +2558,7 @@
       </c>
       <c r="C3" s="8">
         <f>'Sprint 1'!D$10</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="29">
@@ -2558,7 +2573,7 @@
       </c>
       <c r="H3" s="11">
         <f>IF(G3=0,"",C9 - G3)</f>
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="B4" s="7">
         <f>'Sprint 2'!D$9</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8">
         <f>'Sprint 2'!D$10</f>
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="9">
         <v>2</v>
       </c>
@@ -2602,7 +2617,7 @@
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H37" si="0">IF(G4="","",H3 - G4)</f>
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2636,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="9">
         <v>3</v>
       </c>
@@ -2645,7 +2660,7 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2679,7 +2694,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="9">
         <v>4</v>
       </c>
@@ -2689,7 +2704,7 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2723,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="30"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="9">
         <v>5</v>
       </c>
@@ -2733,7 +2748,7 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2759,7 +2774,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="9">
         <v>6</v>
       </c>
@@ -2769,7 +2784,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2797,20 +2812,20 @@
       </c>
       <c r="C9" s="13">
         <f>SUM(B3:B7)</f>
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="9">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="10">
         <f>IF(SUM('Sprint 1'!J$44:J$50)=0,"",SUM('Sprint 1'!J$44:J$50))</f>
-        <v/>
+        <v>3</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>157</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2836,7 +2851,7 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="32">
+      <c r="E10" s="33">
         <v>2</v>
       </c>
       <c r="F10" s="9">
@@ -2874,7 +2889,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="9">
         <v>9</v>
       </c>
@@ -2910,17 +2925,17 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="10">
         <f>IF(SUM('Sprint 2'!J$16:J$22)=0,"",SUM('Sprint 2'!J$16:J$22))</f>
-        <v/>
+        <v>3</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="11" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2946,17 +2961,17 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="9">
         <v>11</v>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="10">
         <f>IF(SUM('Sprint 2'!J$23:J$29)=0,"",SUM('Sprint 2'!J$23:J$29))</f>
-        <v/>
+        <v>8</v>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="11" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2982,17 +2997,17 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="9">
         <v>12</v>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="10">
         <f>IF(SUM('Sprint 2'!J$30:J$36)=0,"",SUM('Sprint 2'!J$30:J$36))</f>
-        <v/>
+        <v>11</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="11" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3018,17 +3033,17 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="9">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="10">
         <f>IF(SUM('Sprint 2'!J$37:J$43)=0,"",SUM('Sprint 2'!J$37:J$43))</f>
-        <v/>
+        <v>8</v>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="11" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3054,17 +3069,17 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="9">
         <v>14</v>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="10">
         <f>IF(SUM('Sprint 2'!J$44:J$50)=0,"",SUM('Sprint 2'!J$44:J$50))</f>
-        <v/>
+        <v>8</v>
       </c>
-      <c r="H16" s="11" t="str">
+      <c r="H16" s="11" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3090,7 +3105,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="33">
+      <c r="E17" s="34">
         <v>3</v>
       </c>
       <c r="F17" s="9">
@@ -3128,7 +3143,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="9">
         <v>16</v>
       </c>
@@ -3164,7 +3179,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="9">
         <v>17</v>
       </c>
@@ -3200,7 +3215,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="9">
         <v>18</v>
       </c>
@@ -3236,7 +3251,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="9">
         <v>19</v>
       </c>
@@ -3272,7 +3287,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="9">
         <v>20</v>
       </c>
@@ -3308,7 +3323,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="9">
         <v>21</v>
       </c>
@@ -3344,7 +3359,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="34">
+      <c r="E24" s="26">
         <v>4</v>
       </c>
       <c r="F24" s="9">
@@ -3382,7 +3397,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="9">
         <v>23</v>
       </c>
@@ -3418,7 +3433,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="9">
         <v>24</v>
       </c>
@@ -3454,7 +3469,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="9">
         <v>25</v>
       </c>
@@ -3490,7 +3505,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="9">
         <v>26</v>
       </c>
@@ -3526,7 +3541,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="30"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="9">
         <v>27</v>
       </c>
@@ -3562,7 +3577,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="9">
         <v>28</v>
       </c>
@@ -3636,7 +3651,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="30"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="9">
         <v>30</v>
       </c>
@@ -3672,7 +3687,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="30"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="9">
         <v>31</v>
       </c>
@@ -3708,7 +3723,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="9">
         <v>32</v>
       </c>
@@ -3744,7 +3759,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="30"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="9">
         <v>33</v>
       </c>
@@ -3780,7 +3795,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="30"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="9">
         <v>34</v>
       </c>
@@ -3816,7 +3831,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="9">
         <v>35</v>
       </c>
@@ -57231,9 +57246,9 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -57281,15 +57296,15 @@
       </c>
       <c r="C2" s="20">
         <f t="shared" ref="C2:C4" si="0">SUMIF(I2:I50, A2, J2:J50)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D2" s="20">
         <f t="shared" ref="D2:D4" si="1">B2-C2</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E4" si="2">C2/B2</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="29">
@@ -57314,18 +57329,18 @@
       </c>
       <c r="C3" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D3" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0625</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="22"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -57339,42 +57354,42 @@
       </c>
       <c r="C4" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="22"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G6" s="30"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G7" s="30"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G8" s="31"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -57387,7 +57402,7 @@
         <f>SUM(B2:B4)</f>
         <v>16</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <v>2</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -57406,27 +57421,27 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="22"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
@@ -57435,19 +57450,19 @@
       <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G16" s="33">
+      <c r="G16" s="34">
         <v>3</v>
       </c>
       <c r="H16" s="22"/>
@@ -57458,43 +57473,43 @@
       </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="30"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="30"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="31"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <v>4</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -57508,7 +57523,7 @@
       </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="30"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="22" t="s">
         <v>48</v>
       </c>
@@ -57520,31 +57535,31 @@
       </c>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="30"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="30"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
@@ -57564,43 +57579,43 @@
       </c>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="30"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="30"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="30"/>
+    <row r="33" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G33" s="27"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="30"/>
+    <row r="34" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G34" s="27"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="30"/>
+    <row r="35" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G35" s="27"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="31"/>
+    <row r="36" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G36" s="28"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="32">
+    <row r="37" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -57613,85 +57628,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G38" s="30"/>
+    <row r="38" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G38" s="27"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G39" s="30"/>
+    <row r="39" spans="7:11" ht="15.75" customHeight="1">
+      <c r="G39" s="27"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="30"/>
+    <row r="40" spans="7:11" ht="15">
+      <c r="G40" s="27"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="30"/>
+    <row r="41" spans="7:11" ht="15">
+      <c r="G41" s="27"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="30"/>
+    <row r="42" spans="7:11" ht="15">
+      <c r="G42" s="27"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="31"/>
+    <row r="43" spans="7:11" ht="15">
+      <c r="G43" s="28"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="33">
+    <row r="44" spans="7:11" ht="15">
+      <c r="G44" s="34">
         <v>7</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="30"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="30"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="30"/>
+      <c r="H44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" ht="15">
+      <c r="G45" s="27"/>
+      <c r="H45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" ht="15">
+      <c r="G46" s="27"/>
+      <c r="H46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="11">
+        <v>2</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" ht="15">
+      <c r="G47" s="27"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="30"/>
+      <c r="K47" s="35"/>
+    </row>
+    <row r="48" spans="7:11" ht="15">
+      <c r="G48" s="27"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="30"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="7:11" ht="15">
+      <c r="G49" s="27"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="31"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="7:11" ht="15">
+      <c r="G50" s="28"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
+      <c r="K50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -57703,6 +57749,7 @@
     <mergeCell ref="G23:G29"/>
     <mergeCell ref="G30:G36"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="I2:I50" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$8</formula1>
@@ -57728,7 +57775,9 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -57775,15 +57824,15 @@
       </c>
       <c r="C2" s="20">
         <f>SUMIF(I2:I50, A2, J2:J50)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D2" s="20">
         <f t="shared" ref="D2:D4" si="0">B2-C2</f>
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E4" si="1">C2/B2</f>
-        <v>0</v>
+        <v>1.1875</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="29">
@@ -57798,21 +57847,21 @@
         <v>50</v>
       </c>
       <c r="B3" s="20">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -57836,31 +57885,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="30"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="30"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="31"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -57871,9 +57920,9 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(B2:B4)</f>
-        <v>68</v>
+        <v>44</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -57886,127 +57935,139 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>68</v>
+        <v>6</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="33">
+      <c r="G16" s="34">
         <v>3</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="30"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="30"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="31"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <v>4</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="H23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="30"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="30"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="30"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
@@ -58015,130 +58076,166 @@
       <c r="G30" s="29">
         <v>5</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="H30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="30"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="30"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="30"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="30"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="30"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="31"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="32">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="H37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="30"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="30"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="30"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="30"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="30"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="31"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="33">
+      <c r="G44" s="34">
         <v>7</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="30"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="30"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="30"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="30"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="31"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -58178,7 +58275,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -58270,7 +58367,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -58294,31 +58391,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="30"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="30"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="31"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -58331,7 +58428,7 @@
         <f>SUM(B2:B4)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -58346,43 +58443,43 @@
         <f>SUM(D2:D4)</f>
         <v>18</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="33">
+      <c r="G16" s="34">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -58390,43 +58487,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="30"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="30"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="31"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -58434,37 +58531,37 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="30"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="30"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="30"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
@@ -58478,43 +58575,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="30"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="30"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="30"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="30"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="30"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="31"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="32">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -58522,43 +58619,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="30"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="30"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="30"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="30"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="30"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="31"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="33">
+      <c r="G44" s="34">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -58566,37 +58663,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="30"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="30"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="30"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="30"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="31"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -58720,7 +58817,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -58732,31 +58829,31 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="30"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="30"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="31"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -58769,7 +58866,7 @@
         <f>SUM(B2:B4)</f>
         <v>64</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -58784,43 +58881,43 @@
         <f>SUM(D2:D4)</f>
         <v>64</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="33">
+      <c r="G16" s="34">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -58828,43 +58925,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="30"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="30"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="31"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -58872,37 +58969,37 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="30"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="30"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="30"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
@@ -58916,43 +59013,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="30"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="30"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="30"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="30"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="30"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="31"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="32">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -58960,43 +59057,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="30"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="30"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="30"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="30"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="30"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="31"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="33">
+      <c r="G44" s="34">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -59004,37 +59101,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="30"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="30"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="30"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="30"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="31"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -59159,7 +59256,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -59171,31 +59268,31 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="30"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="30"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="31"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -59208,7 +59305,7 @@
         <f>SUM(B2:B4)</f>
         <v>32</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -59223,43 +59320,43 @@
         <f>SUM(D2:D4)</f>
         <v>32</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="30"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="30"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="33">
+      <c r="G16" s="34">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -59267,43 +59364,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="30"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="30"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="30"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="31"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -59311,37 +59408,37 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="30"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="30"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="30"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="30"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="30"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
@@ -59355,43 +59452,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="30"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="30"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="30"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="30"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="30"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="31"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="32">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -59399,43 +59496,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="30"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="30"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="30"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="30"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="30"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="31"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="33">
+      <c r="G44" s="34">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -59443,37 +59540,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="30"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="30"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="30"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="30"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="31"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7AA61F-5462-4B85-974C-9FCD3ADE50BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E1BE8-26DA-4C9C-8CC6-05CB174D3E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -470,6 +470,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,7 +490,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,28 +1505,28 @@
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2465,8 +2465,8 @@
   </sheetPr>
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2475,18 +2475,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2561,7 +2561,7 @@
         <v>-3</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="9">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9">
         <v>2</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="9">
         <v>3</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="9">
         <v>4</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="9">
         <v>5</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="9">
         <v>6</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>176</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="9">
         <v>7</v>
       </c>
@@ -2851,19 +2851,18 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="33">
+      <c r="E10" s="34">
         <v>2</v>
       </c>
       <c r="F10" s="9">
         <v>8</v>
       </c>
-      <c r="G10" s="10" t="str">
-        <f>IF(SUM('Sprint 2'!J$2:J$8)=0,"",SUM('Sprint 2'!J$2:J$8))</f>
-        <v/>
+      <c r="G10" s="10">
+        <v>0</v>
       </c>
-      <c r="H10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="11">
+        <f>IF(G10="","",H9 - G10)</f>
+        <v>157</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2889,17 +2888,16 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="9">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="str">
-        <f>IF(SUM('Sprint 2'!J$9:J$15)=0,"",SUM('Sprint 2'!J$9:J$15))</f>
-        <v/>
+      <c r="G11" s="10">
+        <v>0</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>157</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2925,7 +2923,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="9">
         <v>10</v>
       </c>
@@ -2933,9 +2931,9 @@
         <f>IF(SUM('Sprint 2'!J$16:J$22)=0,"",SUM('Sprint 2'!J$16:J$22))</f>
         <v>3</v>
       </c>
-      <c r="H12" s="11" t="e">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2961,7 +2959,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="9">
         <v>11</v>
       </c>
@@ -2969,9 +2967,9 @@
         <f>IF(SUM('Sprint 2'!J$23:J$29)=0,"",SUM('Sprint 2'!J$23:J$29))</f>
         <v>8</v>
       </c>
-      <c r="H13" s="11" t="e">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>146</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2997,7 +2995,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="9">
         <v>12</v>
       </c>
@@ -3005,9 +3003,9 @@
         <f>IF(SUM('Sprint 2'!J$30:J$36)=0,"",SUM('Sprint 2'!J$30:J$36))</f>
         <v>11</v>
       </c>
-      <c r="H14" s="11" t="e">
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3033,7 +3031,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="9">
         <v>13</v>
       </c>
@@ -3041,9 +3039,9 @@
         <f>IF(SUM('Sprint 2'!J$37:J$43)=0,"",SUM('Sprint 2'!J$37:J$43))</f>
         <v>8</v>
       </c>
-      <c r="H15" s="11" t="e">
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>127</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3069,7 +3067,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="9">
         <v>14</v>
       </c>
@@ -3077,9 +3075,9 @@
         <f>IF(SUM('Sprint 2'!J$44:J$50)=0,"",SUM('Sprint 2'!J$44:J$50))</f>
         <v>8</v>
       </c>
-      <c r="H16" s="11" t="e">
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3105,7 +3103,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="34">
+      <c r="E17" s="35">
         <v>3</v>
       </c>
       <c r="F17" s="9">
@@ -3115,9 +3113,9 @@
         <f>IF(SUM('Sprint 3'!J$2:J$8)=0,"",SUM('Sprint 3'!J$2:J$8))</f>
         <v>2</v>
       </c>
-      <c r="H17" s="11" t="e">
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3143,7 +3141,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="9">
         <v>16</v>
       </c>
@@ -3179,7 +3177,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="9">
         <v>17</v>
       </c>
@@ -3215,7 +3213,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="9">
         <v>18</v>
       </c>
@@ -3251,7 +3249,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="9">
         <v>19</v>
       </c>
@@ -3287,7 +3285,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="9">
         <v>20</v>
       </c>
@@ -3323,7 +3321,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="9">
         <v>21</v>
       </c>
@@ -3359,7 +3357,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="26">
+      <c r="E24" s="27">
         <v>4</v>
       </c>
       <c r="F24" s="9">
@@ -3397,7 +3395,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="9">
         <v>23</v>
       </c>
@@ -3433,7 +3431,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="9">
         <v>24</v>
       </c>
@@ -3469,7 +3467,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="9">
         <v>25</v>
       </c>
@@ -3505,7 +3503,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="9">
         <v>26</v>
       </c>
@@ -3541,7 +3539,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="9">
         <v>27</v>
       </c>
@@ -3577,7 +3575,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="9">
         <v>28</v>
       </c>
@@ -3613,7 +3611,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="29">
+      <c r="E31" s="30">
         <v>5</v>
       </c>
       <c r="F31" s="9">
@@ -3651,7 +3649,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="9">
         <v>30</v>
       </c>
@@ -3687,7 +3685,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="9">
         <v>31</v>
       </c>
@@ -3723,7 +3721,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="9">
         <v>32</v>
       </c>
@@ -3759,7 +3757,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="9">
         <v>33</v>
       </c>
@@ -3795,7 +3793,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="9">
         <v>34</v>
       </c>
@@ -3831,7 +3829,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="28"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="9">
         <v>35</v>
       </c>
@@ -29175,7 +29173,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -29343,7 +29343,9 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -29373,7 +29375,9 @@
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -57246,7 +57250,7 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
@@ -57307,7 +57311,7 @@
         <v>1.125</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="29">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -57340,7 +57344,7 @@
         <v>1.0625</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="22"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -57365,31 +57369,31 @@
         <v>1.5</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="22"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -57402,7 +57406,7 @@
         <f>SUM(B2:B4)</f>
         <v>16</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -57423,25 +57427,25 @@
         <f>SUM(D2:D4)</f>
         <v>-3</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="22"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
@@ -57450,19 +57454,19 @@
       <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G16" s="34">
+      <c r="G16" s="35">
         <v>3</v>
       </c>
       <c r="H16" s="22"/>
@@ -57473,43 +57477,43 @@
       </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="26">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -57523,7 +57527,7 @@
       </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="22" t="s">
         <v>48</v>
       </c>
@@ -57535,37 +57539,37 @@
       </c>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>5</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -57579,43 +57583,43 @@
       </c>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <v>6</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -57629,43 +57633,43 @@
       </c>
     </row>
     <row r="38" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:11" ht="15.75" customHeight="1">
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:11" ht="15">
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:11" ht="15">
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:11" ht="15">
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:11" ht="15">
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:11" ht="15">
-      <c r="G44" s="34">
+      <c r="G44" s="35">
         <v>7</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -57677,12 +57681,12 @@
       <c r="J44" s="11">
         <v>0.5</v>
       </c>
-      <c r="K44" s="35" t="s">
+      <c r="K44" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="7:11" ht="15">
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9" t="s">
         <v>48</v>
       </c>
@@ -57692,12 +57696,12 @@
       <c r="J45" s="11">
         <v>0.5</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="7:11" ht="15">
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9" t="s">
         <v>44</v>
       </c>
@@ -57707,37 +57711,37 @@
       <c r="J46" s="11">
         <v>2</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="7:11" ht="15">
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="7:11" ht="15">
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="7:11" ht="15">
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="7:11" ht="15">
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -57835,7 +57839,7 @@
         <v>1.1875</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="29">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
       <c r="H2" s="9"/>
@@ -57861,7 +57865,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -57885,31 +57889,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -57922,7 +57926,7 @@
         <f>SUM(B2:B4)</f>
         <v>44</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -57937,43 +57941,43 @@
         <f>SUM(D2:D4)</f>
         <v>6</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="34">
+      <c r="G16" s="35">
         <v>3</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -57987,43 +57991,43 @@
       </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="26">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -58037,43 +58041,43 @@
       </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>5</v>
       </c>
       <c r="H30" s="9" t="s">
@@ -58087,7 +58091,7 @@
       </c>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="9" t="s">
         <v>40</v>
       </c>
@@ -58099,37 +58103,37 @@
       </c>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <v>6</v>
       </c>
       <c r="H37" s="9" t="s">
@@ -58143,7 +58147,7 @@
       </c>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="9" t="s">
         <v>40</v>
       </c>
@@ -58155,37 +58159,37 @@
       </c>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="34">
+      <c r="G44" s="35">
         <v>7</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -58199,7 +58203,7 @@
       </c>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9" t="s">
         <v>40</v>
       </c>
@@ -58211,31 +58215,31 @@
       </c>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -58335,7 +58339,7 @@
         <v>0.25</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="29">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -58367,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -58391,31 +58395,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -58428,7 +58432,7 @@
         <f>SUM(B2:B4)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -58443,43 +58447,43 @@
         <f>SUM(D2:D4)</f>
         <v>18</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="34">
+      <c r="G16" s="35">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -58487,43 +58491,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="26">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -58531,43 +58535,43 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>5</v>
       </c>
       <c r="H30" s="9"/>
@@ -58575,43 +58579,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -58619,43 +58623,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="34">
+      <c r="G44" s="35">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -58663,37 +58667,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -58791,7 +58795,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="29">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
       <c r="H2" s="9"/>
@@ -58817,7 +58821,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -58829,31 +58833,31 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -58866,7 +58870,7 @@
         <f>SUM(B2:B4)</f>
         <v>64</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -58881,43 +58885,43 @@
         <f>SUM(D2:D4)</f>
         <v>64</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="34">
+      <c r="G16" s="35">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -58925,43 +58929,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="26">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -58969,43 +58973,43 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>5</v>
       </c>
       <c r="H30" s="9"/>
@@ -59013,43 +59017,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -59057,43 +59061,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="34">
+      <c r="G44" s="35">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -59101,37 +59105,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -59230,7 +59234,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="29">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
       <c r="H2" s="9"/>
@@ -59256,7 +59260,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -59268,31 +59272,31 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -59305,7 +59309,7 @@
         <f>SUM(B2:B4)</f>
         <v>32</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="9"/>
@@ -59320,43 +59324,43 @@
         <f>SUM(D2:D4)</f>
         <v>32</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G16" s="34">
+      <c r="G16" s="35">
         <v>3</v>
       </c>
       <c r="H16" s="9"/>
@@ -59364,43 +59368,43 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G23" s="26">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
@@ -59408,43 +59412,43 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>5</v>
       </c>
       <c r="H30" s="9"/>
@@ -59452,43 +59456,43 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <v>6</v>
       </c>
       <c r="H37" s="9"/>
@@ -59496,43 +59500,43 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" ht="15">
-      <c r="G38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" ht="15">
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="7:10" ht="15">
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15">
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15">
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15">
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15">
-      <c r="G44" s="34">
+      <c r="G44" s="35">
         <v>7</v>
       </c>
       <c r="H44" s="9"/>
@@ -59540,37 +59544,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15">
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15">
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15">
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15">
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="7:10" ht="15">
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="7:10" ht="15">
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E1BE8-26DA-4C9C-8CC6-05CB174D3E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86CD41-56B4-4A59-865F-D923BD99B94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -204,9 +204,6 @@
     <t>User Ranks</t>
   </si>
   <si>
-    <t>Badges</t>
-  </si>
-  <si>
     <t>Friend Function</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Actually occurred in sprint 4</t>
+  </si>
+  <si>
+    <t>GameBoard</t>
   </si>
 </sst>
 </file>
@@ -1484,88 +1484,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>146</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>119</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2465,8 +2465,8 @@
   </sheetPr>
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H3" s="11">
         <f>IF(G3=0,"",C9 - G3)</f>
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H37" si="0">IF(G4="","",H3 - G4)</f>
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2644,11 +2644,11 @@
       </c>
       <c r="B5" s="7">
         <f>'Sprint 3'!D$9</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <f>'Sprint 3'!D$10</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="28"/>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="B6" s="7">
         <f>'Sprint 4'!D$9</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8">
         <f>'Sprint 4'!D$10</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="28"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C9" s="13">
         <f>SUM(B3:B7)</f>
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="29"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="H10" s="11">
         <f>IF(G10="","",H9 - G10)</f>
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3145,13 +3145,12 @@
       <c r="F18" s="9">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$9:J$15)=0,"",SUM('Sprint 3'!J$9:J$15))</f>
-        <v/>
+      <c r="G18" s="10">
+        <v>0</v>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3181,13 +3180,12 @@
       <c r="F19" s="9">
         <v>17</v>
       </c>
-      <c r="G19" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$16:J$22)=0,"",SUM('Sprint 3'!J$16:J$22))</f>
-        <v/>
+      <c r="G19" s="10">
+        <v>0</v>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3217,13 +3215,12 @@
       <c r="F20" s="9">
         <v>18</v>
       </c>
-      <c r="G20" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$23:J$29)=0,"",SUM('Sprint 3'!J$23:J$29))</f>
-        <v/>
+      <c r="G20" s="10">
+        <v>0</v>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3253,13 +3250,12 @@
       <c r="F21" s="9">
         <v>19</v>
       </c>
-      <c r="G21" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$30:J$36)=0,"",SUM('Sprint 3'!J$30:J$36))</f>
-        <v/>
+      <c r="G21" s="10">
+        <v>0</v>
       </c>
-      <c r="H21" s="11" t="str">
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3289,13 +3285,12 @@
       <c r="F22" s="9">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$37:J$43)=0,"",SUM('Sprint 3'!J$37:J$43))</f>
-        <v/>
+      <c r="G22" s="10">
+        <v>0</v>
       </c>
-      <c r="H22" s="11" t="str">
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3325,13 +3320,12 @@
       <c r="F23" s="9">
         <v>21</v>
       </c>
-      <c r="G23" s="10" t="str">
-        <f>IF(SUM('Sprint 3'!J$44:J$50)=0,"",SUM('Sprint 3'!J$44:J$50))</f>
-        <v/>
+      <c r="G23" s="10">
+        <v>0</v>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3363,13 +3357,12 @@
       <c r="F24" s="9">
         <v>22</v>
       </c>
-      <c r="G24" s="10" t="str">
-        <f>IF(SUM('Sprint 4'!J$2:J$8)=0,"",SUM('Sprint 4'!J$2:J$8))</f>
-        <v/>
+      <c r="G24" s="10">
+        <v>0</v>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3399,13 +3392,12 @@
       <c r="F25" s="9">
         <v>23</v>
       </c>
-      <c r="G25" s="10" t="str">
-        <f>IF(SUM('Sprint 4'!J$9:J$15)=0,"",SUM('Sprint 4'!J$9:J$15))</f>
-        <v/>
+      <c r="G25" s="10">
+        <v>0</v>
       </c>
-      <c r="H25" s="11" t="str">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3435,13 +3427,12 @@
       <c r="F26" s="9">
         <v>24</v>
       </c>
-      <c r="G26" s="10" t="str">
-        <f>IF(SUM('Sprint 4'!J$16:J$22)=0,"",SUM('Sprint 4'!J$16:J$22))</f>
-        <v/>
+      <c r="G26" s="10">
+        <v>0</v>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3471,13 +3462,12 @@
       <c r="F27" s="9">
         <v>25</v>
       </c>
-      <c r="G27" s="10" t="str">
-        <f>IF(SUM('Sprint 4'!J$23:J$29)=0,"",SUM('Sprint 4'!J$23:J$29))</f>
-        <v/>
+      <c r="G27" s="10">
+        <v>0</v>
       </c>
-      <c r="H27" s="11" t="str">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3507,13 +3497,12 @@
       <c r="F28" s="9">
         <v>26</v>
       </c>
-      <c r="G28" s="10" t="str">
-        <f>IF(SUM('Sprint 4'!J$30:J$36)=0,"",SUM('Sprint 4'!J$30:J$36))</f>
-        <v/>
+      <c r="G28" s="10">
+        <v>0</v>
       </c>
-      <c r="H28" s="11" t="str">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3543,13 +3532,13 @@
       <c r="F29" s="9">
         <v>27</v>
       </c>
-      <c r="G29" s="10" t="str">
+      <c r="G29" s="10">
         <f>IF(SUM('Sprint 4'!J$37:J$43)=0,"",SUM('Sprint 4'!J$37:J$43))</f>
-        <v/>
+        <v>5</v>
       </c>
-      <c r="H29" s="11" t="str">
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3579,13 +3568,13 @@
       <c r="F30" s="9">
         <v>28</v>
       </c>
-      <c r="G30" s="10" t="str">
+      <c r="G30" s="10">
         <f>IF(SUM('Sprint 4'!J$44:J$50)=0,"",SUM('Sprint 4'!J$44:J$50))</f>
-        <v/>
+        <v>3</v>
       </c>
-      <c r="H30" s="11" t="str">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>41</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3617,10 +3606,7 @@
       <c r="F31" s="9">
         <v>29</v>
       </c>
-      <c r="G31" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$2:J$8)=0,"",SUM('Sprint 5'!J$2:J$8))</f>
-        <v/>
-      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3653,10 +3639,7 @@
       <c r="F32" s="9">
         <v>30</v>
       </c>
-      <c r="G32" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$9:J$15)=0,"",SUM('Sprint 5'!J$9:J$15))</f>
-        <v/>
-      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3689,10 +3672,7 @@
       <c r="F33" s="9">
         <v>31</v>
       </c>
-      <c r="G33" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$16:J$22)=0,"",SUM('Sprint 5'!J$16:J$22))</f>
-        <v/>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3725,10 +3705,7 @@
       <c r="F34" s="9">
         <v>32</v>
       </c>
-      <c r="G34" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$23:J$29)=0,"",SUM('Sprint 5'!J$23:J$29))</f>
-        <v/>
-      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3761,10 +3738,7 @@
       <c r="F35" s="9">
         <v>33</v>
       </c>
-      <c r="G35" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$30:J$36)=0,"",SUM('Sprint 5'!J$30:J$36))</f>
-        <v/>
-      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3797,10 +3771,7 @@
       <c r="F36" s="9">
         <v>34</v>
       </c>
-      <c r="G36" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$37:J$43)=0,"",SUM('Sprint 5'!J$37:J$43))</f>
-        <v/>
-      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3833,10 +3804,7 @@
       <c r="F37" s="9">
         <v>35</v>
       </c>
-      <c r="G37" s="10" t="str">
-        <f>IF(SUM('Sprint 5'!J$44:J$50)=0,"",SUM('Sprint 5'!J$44:J$50))</f>
-        <v/>
-      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -57682,7 +57650,7 @@
         <v>0.5</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="7:11" ht="15">
@@ -57697,7 +57665,7 @@
         <v>0.5</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="7:11" ht="15">
@@ -57712,7 +57680,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="7:11" ht="15">
@@ -58280,7 +58248,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -58357,18 +58325,17 @@
         <v>53</v>
       </c>
       <c r="B3" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="28"/>
@@ -58381,18 +58348,18 @@
         <v>54</v>
       </c>
       <c r="B4" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="28"/>
@@ -58430,7 +58397,7 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(B2:B4)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G9" s="34">
         <v>2</v>
@@ -58445,7 +58412,7 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="9"/>
@@ -58737,7 +58704,9 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -58777,18 +58746,17 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="20">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C2" s="20">
-        <f>SUMIF(I2:I50, A2, J2:J50)</f>
         <v>0</v>
       </c>
       <c r="D2" s="20">
         <f t="shared" ref="D2:D3" si="0">B2-C2</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E3" si="1">C2/B2</f>
@@ -58804,21 +58772,21 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="28"/>
@@ -58868,7 +58836,7 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(B2:B4)</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G9" s="34">
         <v>2</v>
@@ -58883,7 +58851,7 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="9"/>
@@ -59056,9 +59024,15 @@
       <c r="G37" s="34">
         <v>6</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="H37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="7:10" ht="15">
       <c r="G38" s="28"/>
@@ -59100,9 +59074,15 @@
       <c r="G44" s="35">
         <v>7</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="7:10" ht="15">
       <c r="G45" s="28"/>
@@ -59175,7 +59155,9 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -59216,7 +59198,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="20">
         <v>16</v>
@@ -59243,7 +59225,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="20">
         <v>16</v>

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryke\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86CD41-56B4-4A59-865F-D923BD99B94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8000E98-E40D-4FC2-A911-7D8F0C4573E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30420" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -1484,88 +1484,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2465,7 +2465,7 @@
   </sheetPr>
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H3" s="11">
         <f>IF(G3=0,"",C9 - G3)</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H37" si="0">IF(G4="","",H3 - G4)</f>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="B7" s="7">
         <f>'Sprint 5'!D$9</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
         <f>'Sprint 5'!D$10</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="28"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C9" s="13">
         <f>SUM(B3:B7)</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="29"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="H10" s="11">
         <f>IF(G10="","",H9 - G10)</f>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="H29" s="11">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="H30" s="11">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -59155,8 +59155,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -59201,19 +59201,19 @@
         <v>56</v>
       </c>
       <c r="B2" s="20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF(I2:I50, A2, J2:J50)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="20">
         <f t="shared" ref="D2:D3" si="0">B2-C2</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E3" si="1">C2/B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="30">
@@ -59289,7 +59289,7 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(B2:B4)</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G9" s="34">
         <v>2</v>
@@ -59304,7 +59304,7 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="9"/>
@@ -59433,9 +59433,15 @@
       <c r="G30" s="30">
         <v>5</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="H30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="7:10" ht="15.75" customHeight="1">
       <c r="G31" s="28"/>
@@ -59477,9 +59483,15 @@
       <c r="G37" s="34">
         <v>6</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="H37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="7:10" ht="15">
       <c r="G38" s="28"/>
@@ -59521,9 +59533,15 @@
       <c r="G44" s="35">
         <v>7</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
+      <c r="H44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="7:10" ht="15">
       <c r="G45" s="28"/>

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryke\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerop\Documents\GitHub\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8000E98-E40D-4FC2-A911-7D8F0C4573E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F69883-C915-421C-A8E6-422CEF00BBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>GameBoard</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -59155,8 +59158,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -59495,9 +59498,15 @@
     </row>
     <row r="38" spans="7:10" ht="15">
       <c r="G38" s="28"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
+      <c r="H38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="7:10" ht="15">
       <c r="G39" s="28"/>

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerop\Documents\GitHub\CST-247-Milestone-CLC\Planning and Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F69883-C915-421C-A8E6-422CEF00BBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50FEC8-2403-498C-BC16-CA60C27DC8D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Donadl</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1141,164 +1147,164 @@
   </dxfs>
   <tableStyles count="40">
     <tableStyle name="Burn Chart-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="79"/>
-      <tableStyleElement type="secondRowStripe" dxfId="78"/>
+      <tableStyleElement type="firstRowStripe" dxfId="80"/>
+      <tableStyleElement type="secondRowStripe" dxfId="79"/>
     </tableStyle>
     <tableStyle name="Burn Chart-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="77"/>
-      <tableStyleElement type="secondRowStripe" dxfId="76"/>
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
     </tableStyle>
     <tableStyle name="Burn Chart-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="75"/>
-      <tableStyleElement type="secondRowStripe" dxfId="74"/>
+      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="75"/>
     </tableStyle>
     <tableStyle name="Burn Chart-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="73"/>
-      <tableStyleElement type="secondRowStripe" dxfId="72"/>
+      <tableStyleElement type="firstRowStripe" dxfId="74"/>
+      <tableStyleElement type="secondRowStripe" dxfId="73"/>
     </tableStyle>
     <tableStyle name="Burn Chart-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="71"/>
-      <tableStyleElement type="secondRowStripe" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="69"/>
-      <tableStyleElement type="secondRowStripe" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="70"/>
+      <tableStyleElement type="secondRowStripe" dxfId="69"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
+      <tableStyleElement type="secondRowStripe" dxfId="63"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="61"/>
-      <tableStyleElement type="secondRowStripe" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
     </tableStyle>
     <tableStyle name="Sprint 1-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="secondRowStripe" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="secondRowStripe" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="secondRowStripe" dxfId="47"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
     <tableStyle name="Sprint 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="secondRowStripe" dxfId="43"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="41"/>
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="37"/>
-      <tableStyleElement type="secondRowStripe" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="38"/>
+      <tableStyleElement type="secondRowStripe" dxfId="37"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="Sprint 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Sprint 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF20000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF21000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF22000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF23000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF24000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF25000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF26000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="Sprint 5-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF27000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1571,25 +1577,25 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,7 +2220,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="F31:H37" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2" dataDxfId="0">
+      <calculatedColumnFormula>IF(SUM('Sprint 5'!J32:J$43)=0,"",SUM('Sprint 5'!J32:J38))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="Burn Chart-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2468,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2738,7 +2746,7 @@
       </c>
       <c r="C7" s="8">
         <f>'Sprint 5'!D$10</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="28"/>
@@ -3609,10 +3617,12 @@
       <c r="F31" s="9">
         <v>29</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11" t="str">
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3642,10 +3652,12 @@
       <c r="F32" s="9">
         <v>30</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11" t="str">
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3675,10 +3687,12 @@
       <c r="F33" s="9">
         <v>31</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11" t="str">
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3708,10 +3722,12 @@
       <c r="F34" s="9">
         <v>32</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11" t="str">
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3741,10 +3757,12 @@
       <c r="F35" s="9">
         <v>33</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11" t="str">
+      <c r="G35" s="10">
+        <v>4</v>
+      </c>
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3774,10 +3792,12 @@
       <c r="F36" s="9">
         <v>34</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11" t="str">
+      <c r="G36" s="10">
+        <v>17</v>
+      </c>
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3807,10 +3827,12 @@
       <c r="F37" s="9">
         <v>35</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11" t="str">
+      <c r="G37" s="10">
+        <v>6</v>
+      </c>
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -59158,8 +59180,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -59224,7 +59246,9 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -59234,21 +59258,22 @@
         <v>16</v>
       </c>
       <c r="C3" s="20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" s="20">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="28"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
@@ -59260,31 +59285,41 @@
       <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="G5" s="28"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="G7" s="28"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="C9" s="23" t="s">
@@ -59299,7 +59334,9 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="C10" s="23" t="s">
@@ -59307,42 +59344,54 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="G11" s="28"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="G12" s="28"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="G16" s="35">
@@ -59350,43 +59399,57 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" customHeight="1">
       <c r="G17" s="28"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="7:10" ht="15.75" customHeight="1">
       <c r="G18" s="28"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="7:10" ht="15.75" customHeight="1">
       <c r="G19" s="28"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="7:10" ht="15.75" customHeight="1">
       <c r="G20" s="28"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" customHeight="1">
       <c r="G21" s="28"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="7:10" ht="15.75" customHeight="1">
       <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="7:10" ht="15.75" customHeight="1">
       <c r="G23" s="27">
@@ -59394,43 +59457,57 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="7:10" ht="15.75" customHeight="1">
       <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="7:10" ht="15.75" customHeight="1">
       <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="7:10" ht="15.75" customHeight="1">
       <c r="G26" s="28"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="7:10" ht="15.75" customHeight="1">
       <c r="G27" s="28"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="7:10" ht="15.75" customHeight="1">
       <c r="G28" s="28"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="7:10" ht="15.75" customHeight="1">
       <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="7:10" ht="15.75" customHeight="1">
       <c r="G30" s="30">
@@ -59450,37 +59527,49 @@
       <c r="G31" s="28"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="7:10" ht="15.75" customHeight="1">
       <c r="G32" s="28"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="7:10" ht="15.75" customHeight="1">
       <c r="G33" s="28"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="7:10" ht="15.75" customHeight="1">
       <c r="G34" s="28"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="7:10" ht="15.75" customHeight="1">
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="7:10" ht="15.75" customHeight="1">
       <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="7:10" ht="15.75" customHeight="1">
       <c r="G37" s="34">
@@ -59510,33 +59599,47 @@
     </row>
     <row r="39" spans="7:10" ht="15">
       <c r="G39" s="28"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="7:10" ht="15">
       <c r="G40" s="28"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="7:10" ht="15">
       <c r="G41" s="28"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="7:10" ht="15">
       <c r="G42" s="28"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="7:10" ht="15">
       <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="7:10" ht="15">
       <c r="G44" s="35">
@@ -59554,39 +59657,55 @@
     </row>
     <row r="45" spans="7:10" ht="15">
       <c r="G45" s="28"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
+      <c r="H45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="7:10" ht="15">
       <c r="G46" s="28"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="7:10" ht="15">
       <c r="G47" s="28"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="7:10" ht="15">
       <c r="G48" s="28"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="7:10" ht="15">
       <c r="G49" s="28"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="7:10" ht="15">
       <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\source\repos\CST-247-Milestone-CLC\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50FEC8-2403-498C-BC16-CA60C27DC8D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3FDED-AC00-45CB-BB34-B02F0FCB5A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Sprint 3" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 4" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>Sprint Goals</t>
   </si>
@@ -229,6 +230,21 @@
   </si>
   <si>
     <t>Donadl</t>
+  </si>
+  <si>
+    <t>Depenency Injection</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>Custom Authorization</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald </t>
   </si>
 </sst>
 </file>
@@ -427,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -496,6 +512,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2476,8 +2493,8 @@
   </sheetPr>
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2746,7 +2763,7 @@
       </c>
       <c r="C7" s="8">
         <f>'Sprint 5'!D$10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="28"/>
@@ -59180,8 +59197,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -59233,7 +59250,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="20">
-        <f t="shared" ref="D2:D3" si="0">B2-C2</f>
+        <f t="shared" ref="D2" si="0">B2-C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="21">
@@ -59258,14 +59275,14 @@
         <v>16</v>
       </c>
       <c r="C3" s="20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <v>1.125</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="28"/>
@@ -59344,7 +59361,7 @@
       </c>
       <c r="D10" s="24">
         <f>SUM(D2:D4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="9"/>
@@ -59669,34 +59686,50 @@
     </row>
     <row r="46" spans="7:10" ht="15">
       <c r="G46" s="28"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="J46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="7:10" ht="15">
       <c r="G47" s="28"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="H47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J47" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="7:10" ht="15">
       <c r="G48" s="28"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="J48" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="7:10" ht="15">
       <c r="G49" s="28"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J49" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="7:10" ht="15">
@@ -59733,4 +59766,94 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FBEBA-8F61-4F03-A526-09D7EA044E05}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>